--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F11-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F11-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>F11</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.154245</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N2">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O2">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P2">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q2">
-        <v>0.13584850734</v>
+        <v>0.1904658734766666</v>
       </c>
       <c r="R2">
-        <v>1.22263656606</v>
+        <v>1.71419286129</v>
       </c>
       <c r="S2">
-        <v>0.26568831615543</v>
+        <v>0.2412866177832222</v>
       </c>
       <c r="T2">
-        <v>0.26568831615543</v>
+        <v>0.2412866177832222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.154245</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>13.998014</v>
       </c>
       <c r="O3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q3">
         <v>0.2399026299366666</v>
@@ -635,10 +635,10 @@
         <v>2.15912366943</v>
       </c>
       <c r="S3">
-        <v>0.4691941563230151</v>
+        <v>0.3039142557042358</v>
       </c>
       <c r="T3">
-        <v>0.4691941563230151</v>
+        <v>0.3039142557042358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.154245</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N4">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q4">
-        <v>0.07824992811999999</v>
+        <v>0.1475658487333333</v>
       </c>
       <c r="R4">
-        <v>0.7042493530799999</v>
+        <v>1.3280926386</v>
       </c>
       <c r="S4">
-        <v>0.1530387933483365</v>
+        <v>0.1869398642982545</v>
       </c>
       <c r="T4">
-        <v>0.1530387933483365</v>
+        <v>0.1869398642982545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.154245</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8070752841206387</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N5">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q5">
-        <v>0.05730673054166666</v>
+        <v>0.05915153501833333</v>
       </c>
       <c r="R5">
-        <v>0.5157605748749999</v>
+        <v>0.532363815165</v>
       </c>
       <c r="S5">
-        <v>0.1120787341732184</v>
+        <v>0.07493454633492624</v>
       </c>
       <c r="T5">
-        <v>0.1120787341732184</v>
+        <v>0.07493454633492624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01229033333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.036871</v>
+      </c>
+      <c r="I6">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="J6">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.704480666666667</v>
+      </c>
+      <c r="N6">
+        <v>11.113442</v>
+      </c>
+      <c r="O6">
+        <v>0.298964201395561</v>
+      </c>
+      <c r="P6">
+        <v>0.2989642013955609</v>
+      </c>
+      <c r="Q6">
+        <v>0.04552930222022222</v>
+      </c>
+      <c r="R6">
+        <v>0.409763719982</v>
+      </c>
+      <c r="S6">
+        <v>0.05767758361233873</v>
+      </c>
+      <c r="T6">
+        <v>0.05767758361233871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01229033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.036871</v>
+      </c>
+      <c r="I7">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="J7">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.666004666666667</v>
+      </c>
+      <c r="N7">
+        <v>13.998014</v>
+      </c>
+      <c r="O7">
+        <v>0.3765624616238499</v>
+      </c>
+      <c r="P7">
+        <v>0.3765624616238499</v>
+      </c>
+      <c r="Q7">
+        <v>0.05734675268822222</v>
+      </c>
+      <c r="R7">
+        <v>0.516120774194</v>
+      </c>
+      <c r="S7">
+        <v>0.07264820591961411</v>
+      </c>
+      <c r="T7">
+        <v>0.07264820591961411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01229033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.036871</v>
+      </c>
+      <c r="I8">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="J8">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.870093333333334</v>
+      </c>
+      <c r="N8">
+        <v>8.610280000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.2316263029934534</v>
+      </c>
+      <c r="P8">
+        <v>0.2316263029934534</v>
+      </c>
+      <c r="Q8">
+        <v>0.03527440376444445</v>
+      </c>
+      <c r="R8">
+        <v>0.31746963388</v>
+      </c>
+      <c r="S8">
+        <v>0.04468643869519883</v>
+      </c>
+      <c r="T8">
+        <v>0.04468643869519883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01229033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.036871</v>
+      </c>
+      <c r="I9">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="J9">
+        <v>0.1929247158793612</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.150472333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.451417</v>
+      </c>
+      <c r="O9">
+        <v>0.09284703398713583</v>
+      </c>
+      <c r="P9">
+        <v>0.09284703398713583</v>
+      </c>
+      <c r="Q9">
+        <v>0.01413968846744445</v>
+      </c>
+      <c r="R9">
+        <v>0.127257196207</v>
+      </c>
+      <c r="S9">
+        <v>0.01791248765220958</v>
+      </c>
+      <c r="T9">
+        <v>0.01791248765220958</v>
       </c>
     </row>
   </sheetData>
